--- a/Project2/TestResults/PerformanceCompare.xlsx
+++ b/Project2/TestResults/PerformanceCompare.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RPI\2023_Fall\Advanced_Computer_System\ECSE6320-Adv-Computer-Systems\Project2\TestResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harrya\Documents\ECSE 6320 Adv Computer Systems\ECSE6320-Adv-Computer-Systems\Project2\TestResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4048B544-29CB-4E4A-BD69-2EB34A20F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4289014B-AD43-428C-BF1F-4CE6A2C39E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Matrix Size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Native</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -47,15 +39,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Multi-thread + SMID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Multi-thread + Cache miss optimize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMID + Cache-miss optimize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,22 +58,37 @@
     <t>2500*2500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Naïve</t>
+  </si>
+  <si>
+    <t>SIMD</t>
+  </si>
+  <si>
+    <t>Multi-thread + SIMD</t>
+  </si>
+  <si>
+    <t>SIMD + Cache-miss optimize</t>
+  </si>
+  <si>
+    <t>5000*5000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -229,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,9 +254,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -270,6 +272,1376 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Performance of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Different Implementations</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Naive</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.29058E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.406000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F417-42E7-8C01-4ACDFC8E7B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Multi-thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.4466100000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30027100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2093299999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F417-42E7-8C01-4ACDFC8E7B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SIMD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.3995599999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45260800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.33005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F417-42E7-8C01-4ACDFC8E7B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Cache miss</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4065699999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2815500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.380400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F417-42E7-8C01-4ACDFC8E7B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>All three optimizations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.90365E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9845699999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2084900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F417-42E7-8C01-4ACDFC8E7B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1098333711"/>
+        <c:axId val="1686991247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1098333711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>Matrix size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1686991247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1686991247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="1"/>
+                  <a:t>Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098333711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1105461</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119373</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30128</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEA128E-457B-56FF-385B-D5219CD65517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,52 +1907,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" customWidth="1"/>
-    <col min="2" max="9" width="23.58203125" customWidth="1"/>
-    <col min="10" max="10" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="9" width="23.54296875" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:10" ht="20" customHeight="1" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20" customHeight="1">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>2.29058E-3</v>
@@ -607,9 +1982,12 @@
         <v>7.2361799999999998E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="20" customHeight="1">
+      <c r="A4">
+        <v>1000</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>2.8902000000000001</v>
@@ -636,9 +2014,12 @@
         <v>0.44569700000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="20" customHeight="1" thickBot="1">
+      <c r="A5">
+        <v>2500</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4">
         <v>71.406000000000006</v>
@@ -663,10 +2044,19 @@
       </c>
       <c r="J5" s="8">
         <v>7.6313599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="9">
+        <v>35.651899999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>